--- a/results/pvalue_SIDER_all_DGI_AUPR.xlsx
+++ b/results/pvalue_SIDER_all_DGI_AUPR.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20.998</t>
+          <t>11.089</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22.538</t>
+          <t>11.611</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.187</t>
+          <t>11.127</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.616</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>82.502</t>
+          <t>82.514</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>76.48</t>
+          <t>76.49</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.986</t>
+          <t>84.997</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>34.695</t>
+          <t>27.995</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
